--- a/5.Other/CK/Chiết-Khấu-tháng-03-2025.xlsx
+++ b/5.Other/CK/Chiết-Khấu-tháng-03-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E9D0BC-FB0F-49B0-84A4-37EA221B6835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF48AA4F-F722-439F-AD22-6292EF3DEB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bang Tinh CK" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>PHIẾU XÁC NHẬN TỒN SẢN XUẤT THÁNG 3</t>
+  </si>
+  <si>
+    <t>Lô 3-2025</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,6 +772,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,20 +820,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,14 +865,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,80 +972,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1542,7 +1548,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,55 +1562,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="81" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="86" t="str">
+      <c r="E5" s="91" t="str">
         <f>'Phieu Tinh CK'!E6:H6</f>
         <v>Hà Nội, Ngày 31 Tháng 03 Năm 2025</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1615,13 +1621,13 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1691,14 +1697,14 @@
         <v>61</v>
       </c>
       <c r="C12" s="5">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>378000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>60</v>
@@ -1712,14 +1718,14 @@
         <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D13" s="16">
         <v>6000</v>
       </c>
       <c r="E13" s="19">
         <f>C13*D13</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>74</v>
@@ -1768,28 +1774,28 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="47">
         <f>SUM(C11:C15)</f>
-        <v>1030</v>
+        <v>1263</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="73">
         <f>SUM(E11:E15)</f>
-        <v>3180000</v>
+        <v>4578000</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1810,14 +1816,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="91"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="68" t="s">
         <v>57</v>
       </c>
@@ -1826,14 +1832,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="39" t="s">
         <v>30</v>
       </c>
@@ -1874,14 +1880,14 @@
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="68" t="s">
         <v>56</v>
       </c>
@@ -1923,6 +1929,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A20:B20"/>
@@ -1931,13 +1944,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1949,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,62 +1978,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="81" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
@@ -2036,12 +2042,12 @@
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -2062,15 +2068,15 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E17</f>
-        <v>3180000</v>
+        <v>4578000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -2087,10 +2093,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="4">
         <f>COUNTIFS(C15:C20, "&gt;=2.5",C15:C20,"&lt;7")</f>
         <v>0</v>
@@ -2137,14 +2143,14 @@
         <v>6</v>
       </c>
       <c r="C15" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="36">
         <v>100</v>
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>883333.33333333337</v>
+        <v>1271666.6666666667</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2154,7 +2160,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>883333.33333333337</v>
+        <v>1271666.6666666667</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,14 +2171,14 @@
         <v>35</v>
       </c>
       <c r="C16" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="36">
         <v>80</v>
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>706666.66666666663</v>
+        <v>1017333.3333333334</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2182,7 +2188,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>706666.66666666663</v>
+        <v>1017333.3333333334</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,14 +2199,14 @@
         <v>62</v>
       </c>
       <c r="C17" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="36">
         <v>100</v>
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>883333.33333333337</v>
+        <v>1271666.6666666667</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2210,7 +2216,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>883333.33333333337</v>
+        <v>1271666.6666666667</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,14 +2227,14 @@
         <v>63</v>
       </c>
       <c r="C18" s="32">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="36">
         <v>80</v>
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>706666.66666666663</v>
+        <v>1017333.3333333334</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2238,15 +2244,15 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>706666.66666666663</v>
+        <v>1017333.3333333334</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
         <v>360</v>
@@ -2279,15 +2285,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>3180000</v>
+        <v>4578000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2299,7 +2305,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>3180000</v>
+        <v>4578000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2309,10 +2315,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
@@ -2321,16 +2327,16 @@
         <v>57</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="107"/>
+      <c r="H24" s="93"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="92"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
@@ -2338,10 +2344,10 @@
       <c r="E25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="92" t="s">
+      <c r="G25" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="92"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2360,10 +2366,10 @@
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="31" t="s">
         <v>28</v>
       </c>
@@ -2372,10 +2378,10 @@
         <v>56</v>
       </c>
       <c r="F30" s="38"/>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="107"/>
+      <c r="H30" s="93"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
@@ -2384,23 +2390,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2413,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,58 +2439,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109" t="s">
+      <c r="A1" s="133"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="118" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="119"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="118" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="119"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="119"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -2524,27 +2530,27 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="125" t="s">
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="58" t="s">
         <v>46</v>
       </c>
@@ -2557,298 +2563,312 @@
       <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="128"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>50</v>
+      <c r="B10" s="145" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="61">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="61">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="61">
         <v>200</v>
       </c>
-      <c r="D10" s="61">
-        <v>142</v>
-      </c>
-      <c r="E10" s="61">
-        <v>0</v>
-      </c>
-      <c r="F10" s="62">
-        <f>D10-E10</f>
-        <v>142</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="139"/>
+      <c r="F10" s="61">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>70</v>
+      <c r="B11" s="63" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="61">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D11" s="61">
-        <v>1000</v>
+        <v>142</v>
       </c>
       <c r="E11" s="61">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="62">
-        <v>0</v>
-      </c>
-      <c r="G11" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="138"/>
-      <c r="I11" s="139"/>
+        <f>D11-E11</f>
+        <v>142</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>3</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C12" s="61">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="61">
-        <v>178</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="61">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="62">
         <v>0</v>
       </c>
-      <c r="F12" s="62">
-        <f t="shared" ref="F12" si="0">D12</f>
-        <v>178</v>
-      </c>
-      <c r="G12" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="138"/>
-      <c r="I12" s="139"/>
+      <c r="G12" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>4</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>72</v>
+      <c r="B13" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="61">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D13" s="61">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E13" s="61">
         <v>0</v>
       </c>
       <c r="F13" s="62">
-        <f>D13-E13</f>
-        <v>200</v>
-      </c>
-      <c r="G13" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
+        <f t="shared" ref="F13" si="0">D13</f>
+        <v>178</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>5</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>50</v>
+      <c r="B14" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="61">
         <v>300</v>
       </c>
       <c r="D14" s="61">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="E14" s="61">
         <v>0</v>
       </c>
       <c r="F14" s="62">
         <f>D14-E14</f>
-        <v>52</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="139"/>
+        <v>200</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>6</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="60" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="61">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D15" s="61">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E15" s="61">
         <v>0</v>
       </c>
       <c r="F15" s="62">
         <f>D15-E15</f>
-        <v>22</v>
-      </c>
-      <c r="G15" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="138"/>
-      <c r="I15" s="139"/>
+        <v>52</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>7</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C16" s="61">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D16" s="61">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E16" s="61">
         <v>0</v>
       </c>
       <c r="F16" s="62">
         <f>D16-E16</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
+        <v>22</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>8</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C17" s="61">
         <v>30</v>
       </c>
       <c r="D17" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="61">
         <v>0</v>
       </c>
       <c r="F17" s="62">
-        <v>3</v>
-      </c>
-      <c r="G17" s="137" t="s">
+        <f>D17-E17</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="138"/>
-      <c r="I17" s="139"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>9</v>
       </c>
       <c r="B18" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="61">
+        <v>30</v>
+      </c>
+      <c r="D18" s="61">
+        <v>3</v>
+      </c>
+      <c r="E18" s="61">
+        <v>0</v>
+      </c>
+      <c r="F18" s="62">
+        <v>3</v>
+      </c>
+      <c r="G18" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="110"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>10</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61">
-        <v>30</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="139"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="140" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61">
+        <v>63</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="64">
-        <f>SUM(C10:C18)</f>
+      <c r="B20" s="113"/>
+      <c r="C20" s="64">
+        <f>SUM(C11:C19)</f>
         <v>2260</v>
       </c>
-      <c r="D19" s="64">
-        <f>SUM(D10:D18)</f>
-        <v>1599</v>
-      </c>
-      <c r="E19" s="64">
-        <f>SUM(E10:E18)</f>
-        <v>1030</v>
-      </c>
-      <c r="F19" s="64">
-        <f>SUM(F10:F18)</f>
-        <v>599</v>
-      </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="D20" s="64">
+        <f>SUM(D10:D19)</f>
+        <v>3099</v>
+      </c>
+      <c r="E20" s="64">
+        <f>SUM(E10:E19)</f>
+        <v>1263</v>
+      </c>
+      <c r="F20" s="64">
+        <f>SUM(F10:F19)</f>
+        <v>1899</v>
+      </c>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="136" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="136"/>
-      <c r="F21" s="133" t="s">
+      <c r="E22" s="120"/>
+      <c r="F22" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133" t="s">
+      <c r="G22" s="117"/>
+      <c r="H22" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="133"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
@@ -2862,104 +2882,116 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="65"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="69" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="69" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="135" t="s">
+      <c r="G27" s="69"/>
+      <c r="H27" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="135"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="I27" s="111"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:I9"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
